--- a/GoodsTracking/Documentation/CHWaPi.xlsx
+++ b/GoodsTracking/Documentation/CHWaPi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrisc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVCamp\GoodsTracking\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
   <si>
     <t>Table</t>
   </si>
@@ -117,12 +117,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -383,6 +386,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,6 +482,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +534,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,22 +703,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -709,8 +749,11 @@
         <v>29</v>
       </c>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -724,8 +767,11 @@
         <v>30</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -739,8 +785,11 @@
         <v>29</v>
       </c>
       <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -754,8 +803,11 @@
         <v>29</v>
       </c>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
@@ -769,8 +821,11 @@
       <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
@@ -782,8 +837,11 @@
         <v>29</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -797,8 +855,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -812,8 +873,11 @@
         <v>30</v>
       </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -827,8 +891,11 @@
         <v>29</v>
       </c>
       <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -842,8 +909,11 @@
         <v>29</v>
       </c>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -857,8 +927,11 @@
         <v>30</v>
       </c>
       <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -872,8 +945,11 @@
         <v>29</v>
       </c>
       <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -887,8 +963,11 @@
         <v>30</v>
       </c>
       <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -902,8 +981,11 @@
         <v>29</v>
       </c>
       <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
@@ -917,8 +999,11 @@
         <v>29</v>
       </c>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -934,8 +1019,11 @@
       <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
@@ -949,8 +1037,11 @@
         <v>30</v>
       </c>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
@@ -964,8 +1055,11 @@
         <v>29</v>
       </c>
       <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -979,8 +1073,11 @@
         <v>30</v>
       </c>
       <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
@@ -997,7 +1094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1143,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>

--- a/GoodsTracking/Documentation/CHWaPi.xlsx
+++ b/GoodsTracking/Documentation/CHWaPi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrisc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVCamp\GoodsTracking\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +265,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -354,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -389,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,21 +585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +618,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -597,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -616,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -635,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -652,7 +694,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -671,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -692,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -713,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -734,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -753,7 +795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -772,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -791,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -808,7 +850,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -827,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -848,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -867,7 +909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -884,7 +926,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -901,7 +943,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -922,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -939,7 +981,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -956,7 +998,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -973,7 +1015,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -992,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -1129,7 +1171,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -1167,7 +1209,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1226,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -1203,7 +1245,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
@@ -1220,7 +1262,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
@@ -1237,7 +1279,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1298,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1315,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1332,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1349,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1366,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1385,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1404,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1423,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1442,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1409,7 +1451,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1418,7 +1460,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1428,6 +1470,11 @@
       <c r="G48" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1439,7 +1486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
